--- a/Code/Results/Cases/Case_7_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_60/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.367873928818597</v>
+        <v>3.367873928818767</v>
       </c>
       <c r="C2">
-        <v>0.4774521998713794</v>
+        <v>0.4774521998716352</v>
       </c>
       <c r="D2">
-        <v>0.1255088615336319</v>
+        <v>0.1255088615332198</v>
       </c>
       <c r="E2">
-        <v>0.01500764944751065</v>
+        <v>0.0150076494475101</v>
       </c>
       <c r="F2">
         <v>7.242150058995236</v>
       </c>
       <c r="G2">
-        <v>0.0008488683517511308</v>
+        <v>0.0008488683517499148</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1295531710077213</v>
+        <v>0.1295531710077356</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1799128880632708</v>
+        <v>0.1799128880633702</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.972819489692711</v>
+        <v>2.972819489692768</v>
       </c>
       <c r="C3">
-        <v>0.4081948005731704</v>
+        <v>0.4081948005733125</v>
       </c>
       <c r="D3">
-        <v>0.1091333485443613</v>
+        <v>0.1091333485441766</v>
       </c>
       <c r="E3">
-        <v>0.01503452905445335</v>
+        <v>0.01503452905445746</v>
       </c>
       <c r="F3">
-        <v>6.577042659787963</v>
+        <v>6.577042659787992</v>
       </c>
       <c r="G3">
-        <v>0.0008611957438271761</v>
+        <v>0.0008611957438291693</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1233400085139031</v>
+        <v>0.1233400085140381</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1642261006246315</v>
+        <v>0.1642261006246812</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.738877334033987</v>
+        <v>2.738877334034157</v>
       </c>
       <c r="C4">
         <v>0.366905453896095</v>
       </c>
       <c r="D4">
-        <v>0.0993267923600456</v>
+        <v>0.09932679235990349</v>
       </c>
       <c r="E4">
-        <v>0.0150582838499736</v>
+        <v>0.01505828384994951</v>
       </c>
       <c r="F4">
         <v>6.18096447401436</v>
       </c>
       <c r="G4">
-        <v>0.0008689230892274828</v>
+        <v>0.0008689230894023456</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1196552705079235</v>
+        <v>0.1196552705078382</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1550901125312407</v>
+        <v>0.1550901125311981</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.645463199161043</v>
+        <v>2.645463199160986</v>
       </c>
       <c r="C5">
-        <v>0.3503450918909721</v>
+        <v>0.3503450918911426</v>
       </c>
       <c r="D5">
-        <v>0.09538265046369077</v>
+        <v>0.09538265046381866</v>
       </c>
       <c r="E5">
-        <v>0.01506967932459236</v>
+        <v>0.01506967932453201</v>
       </c>
       <c r="F5">
         <v>6.022248585296637</v>
       </c>
       <c r="G5">
-        <v>0.0008721154856493213</v>
+        <v>0.0008721154858766234</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1181821748990188</v>
+        <v>0.1181821748990792</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1514803030729368</v>
+        <v>0.1514803030728444</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.630061002102707</v>
+        <v>2.63006100210248</v>
       </c>
       <c r="C6">
-        <v>0.3476100609942137</v>
+        <v>0.3476100609942705</v>
       </c>
       <c r="D6">
-        <v>0.09473059607719847</v>
+        <v>0.094730596077369</v>
       </c>
       <c r="E6">
-        <v>0.01507167226395217</v>
+        <v>0.01507167226403539</v>
       </c>
       <c r="F6">
-        <v>5.99604534354097</v>
+        <v>5.996045343540885</v>
       </c>
       <c r="G6">
-        <v>0.0008726483039052672</v>
+        <v>0.0008726483038033792</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1179391714102707</v>
+        <v>0.1179391714103524</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1508874211720652</v>
+        <v>0.1508874211719444</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.737610056904089</v>
+        <v>2.737610056904202</v>
       </c>
       <c r="C7">
-        <v>0.3666810965106606</v>
+        <v>0.3666810965113427</v>
       </c>
       <c r="D7">
-        <v>0.09927340208506052</v>
+        <v>0.09927340208429314</v>
       </c>
       <c r="E7">
-        <v>0.0150584307199666</v>
+        <v>0.01505843072001817</v>
       </c>
       <c r="F7">
-        <v>6.178813590656915</v>
+        <v>6.178813590656972</v>
       </c>
       <c r="G7">
-        <v>0.0008689659626551957</v>
+        <v>0.0008689659626980503</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1196352938855689</v>
+        <v>0.1196352938854801</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1550409853631365</v>
+        <v>0.155040985363037</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.229710426096062</v>
+        <v>3.229710426096347</v>
       </c>
       <c r="C8">
-        <v>0.4532870400408626</v>
+        <v>0.4532870400408342</v>
       </c>
       <c r="D8">
-        <v>0.1198045549316902</v>
+        <v>0.1198045549319033</v>
       </c>
       <c r="E8">
-        <v>0.01501534244774838</v>
+        <v>0.01501534244770697</v>
       </c>
       <c r="F8">
-        <v>7.010010916305532</v>
+        <v>7.010010916305617</v>
       </c>
       <c r="G8">
-        <v>0.0008530883014896841</v>
+        <v>0.0008530883014267338</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1273811387944761</v>
+        <v>0.1273811387943269</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.174393849982863</v>
+        <v>0.1743938499828985</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.276101126608978</v>
+        <v>4.276101126609035</v>
       </c>
       <c r="C9">
-        <v>0.6352811125017865</v>
+        <v>0.6352811125021844</v>
       </c>
       <c r="D9">
-        <v>0.1625656859299625</v>
+        <v>0.1625656859301472</v>
       </c>
       <c r="E9">
-        <v>0.01499425621937989</v>
+        <v>0.01499425621933881</v>
       </c>
       <c r="F9">
-        <v>8.758459336930201</v>
+        <v>8.758459336930173</v>
       </c>
       <c r="G9">
-        <v>0.0008230204190128989</v>
+        <v>0.0008230204191219891</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1438241437014369</v>
+        <v>0.1438241437017069</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2168771379205339</v>
+        <v>0.2168771379204628</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.115839996942896</v>
+        <v>5.115839996942952</v>
       </c>
       <c r="C10">
-        <v>0.780314683909836</v>
+        <v>0.7803146839088981</v>
       </c>
       <c r="D10">
-        <v>0.1963754710723151</v>
+        <v>0.1963754710725425</v>
       </c>
       <c r="E10">
-        <v>0.01502762489539755</v>
+        <v>0.01502762489539189</v>
       </c>
       <c r="F10">
-        <v>10.14937752792036</v>
+        <v>10.14937752792025</v>
       </c>
       <c r="G10">
-        <v>0.0008012747294980547</v>
+        <v>0.0008012747294942518</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1570297073343809</v>
+        <v>0.1570297073345657</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2518398902017509</v>
+        <v>0.2518398902017225</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.519202966392697</v>
+        <v>5.519202966392925</v>
       </c>
       <c r="C11">
-        <v>0.8498495250508995</v>
+        <v>0.8498495250504732</v>
       </c>
       <c r="D11">
-        <v>0.2125164785385323</v>
+        <v>0.2125164785385465</v>
       </c>
       <c r="E11">
-        <v>0.01505645905530018</v>
+        <v>0.01505645905537012</v>
       </c>
       <c r="F11">
         <v>10.81463497193522</v>
       </c>
       <c r="G11">
-        <v>0.0007913728712575396</v>
+        <v>0.0007913728712514613</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1633811861909322</v>
+        <v>0.1633811861908754</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2688348007579293</v>
+        <v>0.2688348007580714</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.675632186239227</v>
+        <v>5.675632186238829</v>
       </c>
       <c r="C12">
-        <v>0.8768066304431841</v>
+        <v>0.8768066304427293</v>
       </c>
       <c r="D12">
-        <v>0.2187628474407575</v>
+        <v>0.2187628474409706</v>
       </c>
       <c r="E12">
-        <v>0.01506967550381411</v>
+        <v>0.01506967550379645</v>
       </c>
       <c r="F12">
-        <v>11.07219375060589</v>
+        <v>11.07219375060595</v>
       </c>
       <c r="G12">
-        <v>0.0007876132813064916</v>
+        <v>0.0007876132811894144</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1658460909005015</v>
+        <v>0.1658460909003026</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2754556045548213</v>
+        <v>0.2754556045548497</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.641767416058713</v>
+        <v>5.641767416058883</v>
       </c>
       <c r="C13">
-        <v>0.8709710340087611</v>
+        <v>0.8709710340083632</v>
       </c>
       <c r="D13">
-        <v>0.2174111690196412</v>
+        <v>0.2174111690197975</v>
       </c>
       <c r="E13">
-        <v>0.01506672070521986</v>
+        <v>0.01506672070527415</v>
       </c>
       <c r="F13">
-        <v>11.01645565069873</v>
+        <v>11.0164556506985</v>
       </c>
       <c r="G13">
-        <v>0.000788423574414443</v>
+        <v>0.0007884235743391385</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1653123880283829</v>
+        <v>0.1653123880281981</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2740209450777797</v>
+        <v>0.2740209450774955</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.531994707023784</v>
+        <v>5.5319947070235</v>
       </c>
       <c r="C14">
-        <v>0.8520540238317551</v>
+        <v>0.8520540238309309</v>
       </c>
       <c r="D14">
-        <v>0.2130275241929098</v>
+        <v>0.2130275241930519</v>
       </c>
       <c r="E14">
-        <v>0.01505749812523083</v>
+        <v>0.01505749812510249</v>
       </c>
       <c r="F14">
-        <v>10.83570526477615</v>
+        <v>10.83570526477598</v>
       </c>
       <c r="G14">
-        <v>0.0007910638225058252</v>
+        <v>0.0007910638224158928</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1635827123579858</v>
+        <v>0.163582712358135</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2693756034745576</v>
+        <v>0.2693756034743586</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.465255818470723</v>
+        <v>5.465255818470496</v>
       </c>
       <c r="C15">
-        <v>0.8405520851677863</v>
+        <v>0.8405520851673316</v>
       </c>
       <c r="D15">
-        <v>0.2103606973029457</v>
+        <v>0.2103606973029883</v>
       </c>
       <c r="E15">
-        <v>0.01505215955212313</v>
+        <v>0.01505215955207606</v>
       </c>
       <c r="F15">
-        <v>10.72575671006956</v>
+        <v>10.72575671006962</v>
       </c>
       <c r="G15">
-        <v>0.0007926794691522205</v>
+        <v>0.0007926794690374982</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1625313534452815</v>
+        <v>0.1625313534454875</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2665552560055602</v>
+        <v>0.266555256005617</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.089958839850851</v>
+        <v>5.089958839850794</v>
       </c>
       <c r="C16">
-        <v>0.7758512628685139</v>
+        <v>0.7758512628680592</v>
       </c>
       <c r="D16">
-        <v>0.195337934406254</v>
+        <v>0.1953379344067088</v>
       </c>
       <c r="E16">
-        <v>0.01502604204545288</v>
+        <v>0.01502604204545133</v>
       </c>
       <c r="F16">
-        <v>10.10663411926404</v>
+        <v>10.10663411926416</v>
       </c>
       <c r="G16">
-        <v>0.000801920947846673</v>
+        <v>0.0008019209476097386</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1566223813567049</v>
+        <v>0.1566223813568186</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.865597587998877</v>
+        <v>4.865597587999048</v>
       </c>
       <c r="C17">
-        <v>0.7371450733346023</v>
+        <v>0.737145073335455</v>
       </c>
       <c r="D17">
-        <v>0.1863329714974213</v>
+        <v>0.1863329714978619</v>
       </c>
       <c r="E17">
-        <v>0.01501373069996981</v>
+        <v>0.01501373069984535</v>
       </c>
       <c r="F17">
-        <v>9.735782909351599</v>
+        <v>9.735782909351713</v>
       </c>
       <c r="G17">
-        <v>0.0008075822072741054</v>
+        <v>0.0008075822073859726</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1530922761147764</v>
+        <v>0.1530922761148261</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2413573810343905</v>
+        <v>0.2413573810344616</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.738518737457753</v>
+        <v>4.738518737457866</v>
       </c>
       <c r="C18">
-        <v>0.7152092141694766</v>
+        <v>0.7152092141699029</v>
       </c>
       <c r="D18">
-        <v>0.1812234367569516</v>
+        <v>0.1812234367571648</v>
       </c>
       <c r="E18">
-        <v>0.01500791070249763</v>
+        <v>0.01500791070231577</v>
       </c>
       <c r="F18">
-        <v>9.525473076441187</v>
+        <v>9.525473076441244</v>
       </c>
       <c r="G18">
-        <v>0.0008108381054499544</v>
+        <v>0.0008108381054466106</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1510935365604738</v>
+        <v>0.1510935365604382</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2360536187010922</v>
+        <v>0.2360536187012912</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.695813193433594</v>
+        <v>4.695813193434162</v>
       </c>
       <c r="C19">
-        <v>0.7078351397680933</v>
+        <v>0.707835139767667</v>
       </c>
       <c r="D19">
-        <v>0.1795047592947867</v>
+        <v>0.1795047592945593</v>
       </c>
       <c r="E19">
-        <v>0.01500614783232712</v>
+        <v>0.01500614783215704</v>
       </c>
       <c r="F19">
-        <v>9.454753490764119</v>
+        <v>9.454753490764176</v>
       </c>
       <c r="G19">
-        <v>0.0008119406797981123</v>
+        <v>0.000811940679798983</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1504219579259072</v>
+        <v>0.1504219579258077</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2342743585840878</v>
+        <v>0.2342743585842015</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>4.889273500057186</v>
       </c>
       <c r="C20">
-        <v>0.7412308237243508</v>
+        <v>0.7412308237253171</v>
       </c>
       <c r="D20">
-        <v>0.1872841684058102</v>
+        <v>0.1872841684054691</v>
       </c>
       <c r="E20">
-        <v>0.01501490856918275</v>
+        <v>0.01501490856917098</v>
       </c>
       <c r="F20">
-        <v>9.774944377720544</v>
+        <v>9.774944377720402</v>
       </c>
       <c r="G20">
-        <v>0.0008069796458251951</v>
+        <v>0.0008069796458457499</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1534647146285053</v>
+        <v>0.1534647146286261</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2423470086930593</v>
+        <v>0.2423470086929314</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.564132129406801</v>
+        <v>5.564132129406687</v>
       </c>
       <c r="C21">
-        <v>0.8575923991735124</v>
+        <v>0.8575923991731713</v>
       </c>
       <c r="D21">
-        <v>0.2143112458073801</v>
+        <v>0.2143112458074512</v>
       </c>
       <c r="E21">
-        <v>0.01506014159122526</v>
+        <v>0.0150601415913828</v>
       </c>
       <c r="F21">
-        <v>10.88863435375293</v>
+        <v>10.88863435375276</v>
       </c>
       <c r="G21">
-        <v>0.0007902886648110377</v>
+        <v>0.0007902886649489274</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1640890472009886</v>
+        <v>0.1640890472009531</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2707347717956026</v>
+        <v>0.2707347717955457</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.027045450610899</v>
+        <v>6.027045450610785</v>
       </c>
       <c r="C22">
-        <v>0.937359990311819</v>
+        <v>0.9373599903119043</v>
       </c>
       <c r="D22">
-        <v>0.2327719802724033</v>
+        <v>0.2327719802718207</v>
       </c>
       <c r="E22">
-        <v>0.01510331565282197</v>
+        <v>0.01510331565280321</v>
       </c>
       <c r="F22">
-        <v>11.64996182926637</v>
+        <v>11.6499618292662</v>
       </c>
       <c r="G22">
-        <v>0.0007793167554810145</v>
+        <v>0.0007793167553873646</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1713871573987404</v>
+        <v>0.1713871573987262</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2903848857134221</v>
+        <v>0.2903848857133653</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.777744368877393</v>
+        <v>5.777744368877507</v>
       </c>
       <c r="C23">
-        <v>0.8944021411188317</v>
+        <v>0.894402141119258</v>
       </c>
       <c r="D23">
-        <v>0.2228367160194153</v>
+        <v>0.222836716019188</v>
       </c>
       <c r="E23">
-        <v>0.01507889416012453</v>
+        <v>0.01507889416017716</v>
       </c>
       <c r="F23">
-        <v>11.24019534420927</v>
+        <v>11.24019534420933</v>
       </c>
       <c r="G23">
-        <v>0.0007851817628911549</v>
+        <v>0.0007851817629007662</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1674556499658877</v>
+        <v>0.1674556499657314</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2797859170067909</v>
+        <v>0.2797859170069756</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.878563717363022</v>
+        <v>4.878563717363363</v>
       </c>
       <c r="C24">
         <v>0.7393826773430874</v>
       </c>
       <c r="D24">
-        <v>0.1868539237081137</v>
+        <v>0.1868539237083411</v>
       </c>
       <c r="E24">
-        <v>0.01501437215988799</v>
+        <v>0.01501437215982604</v>
       </c>
       <c r="F24">
         <v>9.757230523115027</v>
       </c>
       <c r="G24">
-        <v>0.0008072520598908247</v>
+        <v>0.0008072520595434911</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1532962400925868</v>
+        <v>0.1532962400925655</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2418992942921534</v>
+        <v>0.241899294292125</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.982314369463325</v>
+        <v>3.982314369463381</v>
       </c>
       <c r="C25">
-        <v>0.5843804093734946</v>
+        <v>0.5843804093739209</v>
       </c>
       <c r="D25">
-        <v>0.1506484738612954</v>
+        <v>0.1506484738617644</v>
       </c>
       <c r="E25">
-        <v>0.01499224530670706</v>
+        <v>0.01499224530669085</v>
       </c>
       <c r="F25">
-        <v>8.269569362002159</v>
+        <v>8.269569362002102</v>
       </c>
       <c r="G25">
-        <v>0.0008310690170255033</v>
+        <v>0.000831069017032614</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1392078156202814</v>
+        <v>0.1392078156201464</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2048067341196287</v>
+        <v>0.2048067341196003</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.367873928818767</v>
+        <v>3.378213651322142</v>
       </c>
       <c r="C2">
-        <v>0.4774521998716352</v>
+        <v>0.5742940435717401</v>
       </c>
       <c r="D2">
-        <v>0.1255088615332198</v>
+        <v>0.03522866393421253</v>
       </c>
       <c r="E2">
-        <v>0.0150076494475101</v>
+        <v>0.03738537503279371</v>
       </c>
       <c r="F2">
-        <v>7.242150058995236</v>
+        <v>1.121892043285527</v>
       </c>
       <c r="G2">
-        <v>0.0008488683517499148</v>
+        <v>0.9002394968517535</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.003202048930136092</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1295531710077356</v>
+        <v>0.6157497418812881</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5314621174801104</v>
       </c>
       <c r="L2">
-        <v>0.1799128880633702</v>
+        <v>0.05566840826468633</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3565997824003091</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.972819489692768</v>
+        <v>2.942196971035571</v>
       </c>
       <c r="C3">
-        <v>0.4081948005733125</v>
+        <v>0.5018033520778147</v>
       </c>
       <c r="D3">
-        <v>0.1091333485441766</v>
+        <v>0.03189349820311094</v>
       </c>
       <c r="E3">
-        <v>0.01503452905445746</v>
+        <v>0.03510888316151384</v>
       </c>
       <c r="F3">
-        <v>6.577042659787992</v>
+        <v>1.068080225612803</v>
       </c>
       <c r="G3">
-        <v>0.0008611957438291693</v>
+        <v>0.8498243765501314</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.005814421139721915</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1233400085140381</v>
+        <v>0.5993677995312936</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5294122098163783</v>
       </c>
       <c r="L3">
-        <v>0.1642261006246812</v>
+        <v>0.0529585807501225</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3143348947597815</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.738877334034157</v>
+        <v>2.674967090450423</v>
       </c>
       <c r="C4">
-        <v>0.366905453896095</v>
+        <v>0.4573441629894717</v>
       </c>
       <c r="D4">
-        <v>0.09932679235990349</v>
+        <v>0.02985488272019765</v>
       </c>
       <c r="E4">
-        <v>0.01505828384994951</v>
+        <v>0.0337099917402135</v>
       </c>
       <c r="F4">
-        <v>6.18096447401436</v>
+        <v>1.036719017932519</v>
       </c>
       <c r="G4">
-        <v>0.0008689230894023456</v>
+        <v>0.8205453378904082</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.007867353992464965</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1196552705078382</v>
+        <v>0.5902719434921124</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5291851718132179</v>
       </c>
       <c r="L4">
-        <v>0.1550901125311981</v>
+        <v>0.05127692595167144</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2884326187289616</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.645463199160986</v>
+        <v>2.566152532369301</v>
       </c>
       <c r="C5">
-        <v>0.3503450918911426</v>
+        <v>0.4392317726980366</v>
       </c>
       <c r="D5">
-        <v>0.09538265046381866</v>
+        <v>0.02902563783159806</v>
       </c>
       <c r="E5">
-        <v>0.01506967932453201</v>
+        <v>0.03313884530603328</v>
       </c>
       <c r="F5">
-        <v>6.022248585296637</v>
+        <v>1.024336836035438</v>
       </c>
       <c r="G5">
-        <v>0.0008721154858766234</v>
+        <v>0.809008630237841</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.008810733441820665</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1181821748990792</v>
+        <v>0.5867951527077935</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5293395876340341</v>
       </c>
       <c r="L5">
-        <v>0.1514803030728444</v>
+        <v>0.0505862425447603</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2778847416932422</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.63006100210248</v>
+        <v>2.548087945449026</v>
       </c>
       <c r="C6">
-        <v>0.3476100609942705</v>
+        <v>0.4362243199164197</v>
       </c>
       <c r="D6">
-        <v>0.094730596077369</v>
+        <v>0.02888801099327054</v>
       </c>
       <c r="E6">
-        <v>0.01507167226403539</v>
+        <v>0.03304391852669042</v>
       </c>
       <c r="F6">
-        <v>5.996045343540885</v>
+        <v>1.022304113904276</v>
       </c>
       <c r="G6">
-        <v>0.0008726483038033792</v>
+        <v>0.8071160546688816</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.008973658302325632</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1179391714103524</v>
+        <v>0.5862313702911592</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5293797894903136</v>
       </c>
       <c r="L6">
-        <v>0.1508874211719444</v>
+        <v>0.05047120332032984</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2761335964120804</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.737610056904202</v>
+        <v>2.673499288907067</v>
       </c>
       <c r="C7">
-        <v>0.3666810965113427</v>
+        <v>0.4570998819903878</v>
       </c>
       <c r="D7">
-        <v>0.09927340208429314</v>
+        <v>0.02984369415050736</v>
       </c>
       <c r="E7">
-        <v>0.01505843072001817</v>
+        <v>0.03370229449282292</v>
       </c>
       <c r="F7">
-        <v>6.178813590656972</v>
+        <v>1.036550448503135</v>
       </c>
       <c r="G7">
-        <v>0.0008689659626980503</v>
+        <v>0.8203881858503479</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.007879652175801555</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1196352938854801</v>
+        <v>0.5902241393621068</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5291862705202028</v>
       </c>
       <c r="L7">
-        <v>0.155040985363037</v>
+        <v>0.05126763417703284</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2882903419651655</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.229710426096347</v>
+        <v>3.227750101119511</v>
       </c>
       <c r="C8">
-        <v>0.4532870400408342</v>
+        <v>0.5492840475072853</v>
       </c>
       <c r="D8">
-        <v>0.1198045549319033</v>
+        <v>0.03407628899776682</v>
       </c>
       <c r="E8">
-        <v>0.01501534244770697</v>
+        <v>0.03660017225611956</v>
       </c>
       <c r="F8">
-        <v>7.010010916305617</v>
+        <v>1.102973971781466</v>
       </c>
       <c r="G8">
-        <v>0.0008530883014267338</v>
+        <v>0.8824919729382543</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.004005860460893018</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1273811387943269</v>
+        <v>0.6098938645172609</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5305334967442548</v>
       </c>
       <c r="L8">
-        <v>0.1743938499828985</v>
+        <v>0.05473718854871112</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3420138524418519</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.276101126609035</v>
+        <v>4.320415876822665</v>
       </c>
       <c r="C9">
-        <v>0.6352811125021844</v>
+        <v>0.730834515632381</v>
       </c>
       <c r="D9">
-        <v>0.1625656859301472</v>
+        <v>0.04248895769599059</v>
       </c>
       <c r="E9">
-        <v>0.01499425621933881</v>
+        <v>0.04231298132938122</v>
       </c>
       <c r="F9">
-        <v>8.758459336930173</v>
+        <v>1.247734538434898</v>
       </c>
       <c r="G9">
-        <v>0.0008230204191219891</v>
+        <v>1.018858210989023</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0002612579403886706</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1438241437017069</v>
+        <v>0.656692037972519</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5419557498354877</v>
       </c>
       <c r="L9">
-        <v>0.2168771379204628</v>
+        <v>0.06144371126460779</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4479812328970638</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.115839996942952</v>
+        <v>5.128952017444362</v>
       </c>
       <c r="C10">
-        <v>0.7803146839088981</v>
+        <v>0.869059233120197</v>
       </c>
       <c r="D10">
-        <v>0.1963754710725425</v>
+        <v>0.04834724044744121</v>
       </c>
       <c r="E10">
-        <v>0.01502762489539189</v>
+        <v>0.04559592303243676</v>
       </c>
       <c r="F10">
-        <v>10.14937752792025</v>
+        <v>1.340469153859829</v>
       </c>
       <c r="G10">
-        <v>0.0008012747294942518</v>
+        <v>1.107856760170037</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0004302313997999185</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1570297073345657</v>
+        <v>0.6859164802244493</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5446424802941365</v>
       </c>
       <c r="L10">
-        <v>0.2518398902017225</v>
+        <v>0.06547191315135015</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.5148382078785829</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.519202966392925</v>
+        <v>5.492313975234765</v>
       </c>
       <c r="C11">
-        <v>0.8498495250504732</v>
+        <v>0.9665920742392302</v>
       </c>
       <c r="D11">
-        <v>0.2125164785385465</v>
+        <v>0.04717089501021121</v>
       </c>
       <c r="E11">
-        <v>0.01505645905537012</v>
+        <v>0.04070858670855948</v>
       </c>
       <c r="F11">
-        <v>10.81463497193522</v>
+        <v>1.181298931409344</v>
       </c>
       <c r="G11">
-        <v>0.0007913728712514613</v>
+        <v>0.9662501012007567</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01915232211114315</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1633811861908754</v>
+        <v>0.6076299435575123</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4497569450123393</v>
       </c>
       <c r="L11">
-        <v>0.2688348007580714</v>
+        <v>0.06558996054978561</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4472294367971017</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.675632186238829</v>
+        <v>5.627550453819538</v>
       </c>
       <c r="C12">
-        <v>0.8768066304427293</v>
+        <v>1.021557117770698</v>
       </c>
       <c r="D12">
-        <v>0.2187628474409706</v>
+        <v>0.04497126317965439</v>
       </c>
       <c r="E12">
-        <v>0.01506967550379645</v>
+        <v>0.03886028513967543</v>
       </c>
       <c r="F12">
-        <v>11.07219375060595</v>
+        <v>1.034563680391784</v>
       </c>
       <c r="G12">
-        <v>0.0007876132811894144</v>
+        <v>0.8348909168231984</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05779340307736192</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1658460909003026</v>
+        <v>0.5385278100825985</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3763870619622622</v>
       </c>
       <c r="L12">
-        <v>0.2754556045548497</v>
+        <v>0.07318351214461671</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3807950761386252</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.641767416058883</v>
+        <v>5.593468306582167</v>
       </c>
       <c r="C13">
-        <v>0.8709710340083632</v>
+        <v>1.046265524444522</v>
       </c>
       <c r="D13">
-        <v>0.2174111690197975</v>
+        <v>0.04185753007564585</v>
       </c>
       <c r="E13">
-        <v>0.01506672070527415</v>
+        <v>0.03918202244606839</v>
       </c>
       <c r="F13">
-        <v>11.0164556506985</v>
+        <v>0.8888420570317379</v>
       </c>
       <c r="G13">
-        <v>0.0007884235743391385</v>
+        <v>0.7036064752890212</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1133533095533608</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1653123880281981</v>
+        <v>0.4723005615089733</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3148947670537972</v>
       </c>
       <c r="L13">
-        <v>0.2740209450774955</v>
+        <v>0.0867036501337104</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.3119831365791583</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.5319947070235</v>
+        <v>5.493064648802942</v>
       </c>
       <c r="C14">
-        <v>0.8520540238309309</v>
+        <v>1.049845029037499</v>
       </c>
       <c r="D14">
-        <v>0.2130275241930519</v>
+        <v>0.03929323680396024</v>
       </c>
       <c r="E14">
-        <v>0.01505749812510249</v>
+        <v>0.04075634159942876</v>
       </c>
       <c r="F14">
-        <v>10.83570526477598</v>
+        <v>0.7892570135586183</v>
       </c>
       <c r="G14">
-        <v>0.0007910638224158928</v>
+        <v>0.6135748465985955</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1625458399557829</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.163582712358135</v>
+        <v>0.4280862550198918</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2784779919350591</v>
       </c>
       <c r="L14">
-        <v>0.2693756034743586</v>
+        <v>0.09977247945621315</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2639373681295893</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.465255818470496</v>
+        <v>5.432566806173895</v>
       </c>
       <c r="C15">
-        <v>0.8405520851673316</v>
+        <v>1.043935545164118</v>
       </c>
       <c r="D15">
-        <v>0.2103606973029883</v>
+        <v>0.0384761844368775</v>
       </c>
       <c r="E15">
-        <v>0.01505215955207606</v>
+        <v>0.0412040163389058</v>
       </c>
       <c r="F15">
-        <v>10.72575671006962</v>
+        <v>0.7644503223613555</v>
       </c>
       <c r="G15">
-        <v>0.0007926794690374982</v>
+        <v>0.5908996330676786</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1749976013633727</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1625313534454875</v>
+        <v>0.4175807189980674</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2712060164902113</v>
       </c>
       <c r="L15">
-        <v>0.266555256005617</v>
+        <v>0.1030702055947259</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2512541370982291</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.089958839850794</v>
+        <v>5.089608835301931</v>
       </c>
       <c r="C16">
-        <v>0.7758512628680592</v>
+        <v>0.9778304404864002</v>
       </c>
       <c r="D16">
-        <v>0.1953379344067088</v>
+        <v>0.03664324262283714</v>
       </c>
       <c r="E16">
-        <v>0.01502604204545133</v>
+        <v>0.0396626203647612</v>
       </c>
       <c r="F16">
-        <v>10.10663411926416</v>
+        <v>0.7553969965176677</v>
       </c>
       <c r="G16">
-        <v>0.0008019209476097386</v>
+        <v>0.5800412293465342</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1621161439121863</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1566223813568186</v>
+        <v>0.4185467993785181</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.282014913603188</v>
       </c>
       <c r="L16">
-        <v>0.2507534768336228</v>
+        <v>0.09803130491518175</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2388283322743945</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.865597587999048</v>
+        <v>4.880764911542713</v>
       </c>
       <c r="C17">
-        <v>0.737145073335455</v>
+        <v>0.9254795391275366</v>
       </c>
       <c r="D17">
-        <v>0.1863329714978619</v>
+        <v>0.03658643875036915</v>
       </c>
       <c r="E17">
-        <v>0.01501373069984535</v>
+        <v>0.03740220609595735</v>
       </c>
       <c r="F17">
-        <v>9.735782909351713</v>
+        <v>0.8005975517199104</v>
       </c>
       <c r="G17">
-        <v>0.0008075822073859726</v>
+        <v>0.6188954257335553</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1243782984726209</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1530922761148261</v>
+        <v>0.4425445910693071</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3092066305222687</v>
       </c>
       <c r="L17">
-        <v>0.2413573810344616</v>
+        <v>0.08662815822889058</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2539376786437515</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.738518737457866</v>
+        <v>4.762408207456645</v>
       </c>
       <c r="C18">
-        <v>0.7152092141699029</v>
+        <v>0.8795471382317146</v>
       </c>
       <c r="D18">
-        <v>0.1812234367571648</v>
+        <v>0.03807381381362163</v>
       </c>
       <c r="E18">
-        <v>0.01500791070231577</v>
+        <v>0.0356909433239303</v>
       </c>
       <c r="F18">
-        <v>9.525473076441244</v>
+        <v>0.9016032510814398</v>
       </c>
       <c r="G18">
-        <v>0.0008108381054466106</v>
+        <v>0.7086972272039702</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0715919454901055</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1510935365604382</v>
+        <v>0.4908121313088145</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3572702759766422</v>
       </c>
       <c r="L18">
-        <v>0.2360536187012912</v>
+        <v>0.07238416923015478</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2971263022092643</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.695813193434162</v>
+        <v>4.724984446257452</v>
       </c>
       <c r="C19">
-        <v>0.707835139767667</v>
+        <v>0.842918594909861</v>
       </c>
       <c r="D19">
-        <v>0.1795047592945593</v>
+        <v>0.04076558817153852</v>
       </c>
       <c r="E19">
-        <v>0.01500614783215704</v>
+        <v>0.03666069672710615</v>
       </c>
       <c r="F19">
-        <v>9.454753490764176</v>
+        <v>1.047491265620877</v>
       </c>
       <c r="G19">
-        <v>0.000811940679798983</v>
+        <v>0.8399195756625772</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0263071488080584</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1504219579258077</v>
+        <v>0.5583238097097194</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4246757511749877</v>
       </c>
       <c r="L19">
-        <v>0.2342743585842015</v>
+        <v>0.06262348126841744</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3642568982104706</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.889273500057186</v>
+        <v>4.916074992141773</v>
       </c>
       <c r="C20">
-        <v>0.7412308237253171</v>
+        <v>0.8328153481903371</v>
       </c>
       <c r="D20">
-        <v>0.1872841684054691</v>
+        <v>0.04677898940100533</v>
       </c>
       <c r="E20">
-        <v>0.01501490856917098</v>
+        <v>0.04468232560508767</v>
       </c>
       <c r="F20">
-        <v>9.774944377720402</v>
+        <v>1.314328764814221</v>
       </c>
       <c r="G20">
-        <v>0.0008069796458457499</v>
+        <v>1.08276499272749</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0001710473031542037</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1534647146286261</v>
+        <v>0.6773456261008874</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5429674981614312</v>
       </c>
       <c r="L20">
-        <v>0.2423470086929314</v>
+        <v>0.06436342883439616</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.4967532109524484</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.564132129406687</v>
+        <v>5.540536527318864</v>
       </c>
       <c r="C21">
-        <v>0.8575923991731713</v>
+        <v>0.9335470363071465</v>
       </c>
       <c r="D21">
-        <v>0.2143112458074512</v>
+        <v>0.05203290446307562</v>
       </c>
       <c r="E21">
-        <v>0.0150601415913828</v>
+        <v>0.04877916035693719</v>
       </c>
       <c r="F21">
-        <v>10.88863435375276</v>
+        <v>1.426819411599567</v>
       </c>
       <c r="G21">
-        <v>0.0007902886649489274</v>
+        <v>1.189060198388745</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001105925369503824</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1640890472009531</v>
+        <v>0.7189888065259993</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.5657514951922451</v>
       </c>
       <c r="L21">
-        <v>0.2707347717955457</v>
+        <v>0.06888705541336027</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.566492844848355</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.027045450610785</v>
+        <v>5.950508840100156</v>
       </c>
       <c r="C22">
-        <v>0.9373599903119043</v>
+        <v>1.001696876532208</v>
       </c>
       <c r="D22">
-        <v>0.2327719802718207</v>
+        <v>0.05528207245099281</v>
       </c>
       <c r="E22">
-        <v>0.01510331565280321</v>
+        <v>0.05098487333618973</v>
       </c>
       <c r="F22">
-        <v>11.6499618292662</v>
+        <v>1.490544436893728</v>
       </c>
       <c r="G22">
-        <v>0.0007793167553873646</v>
+        <v>1.249960298709425</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.002433069706141877</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1713871573987262</v>
+        <v>0.7419520097922145</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.5759918634380696</v>
       </c>
       <c r="L22">
-        <v>0.2903848857133653</v>
+        <v>0.07140012082281455</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6063692302128203</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.777744368877507</v>
+        <v>5.731474873491209</v>
       </c>
       <c r="C23">
-        <v>0.894402141119258</v>
+        <v>0.9652835073923711</v>
       </c>
       <c r="D23">
-        <v>0.222836716019188</v>
+        <v>0.05354332536192885</v>
       </c>
       <c r="E23">
-        <v>0.01507889416017716</v>
+        <v>0.04980407078817972</v>
       </c>
       <c r="F23">
-        <v>11.24019534420933</v>
+        <v>1.456289397033586</v>
       </c>
       <c r="G23">
-        <v>0.0007851817629007662</v>
+        <v>1.217203439218167</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001662064369820415</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1674556499657314</v>
+        <v>0.7295643724483796</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5703887479418199</v>
       </c>
       <c r="L23">
-        <v>0.2797859170069756</v>
+        <v>0.07005618666923752</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5850609529945956</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.878563717363363</v>
+        <v>4.906452183067756</v>
       </c>
       <c r="C24">
-        <v>0.7393826773430874</v>
+        <v>0.8281861302947107</v>
       </c>
       <c r="D24">
-        <v>0.1868539237083411</v>
+        <v>0.04705074057669378</v>
       </c>
       <c r="E24">
-        <v>0.01501437215982604</v>
+        <v>0.04540253437216801</v>
       </c>
       <c r="F24">
-        <v>9.757230523115027</v>
+        <v>1.331680213904164</v>
       </c>
       <c r="G24">
-        <v>0.0008072520595434911</v>
+        <v>1.098456109662038</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6.253031109326734E-05</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1532962400925655</v>
+        <v>0.6854270768593267</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.552075537000313</v>
       </c>
       <c r="L24">
-        <v>0.241899294292125</v>
+        <v>0.06501599627570442</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.5048746285184649</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.982314369463381</v>
+        <v>4.023909773170885</v>
       </c>
       <c r="C25">
-        <v>0.5843804093739209</v>
+        <v>0.681579929562929</v>
       </c>
       <c r="D25">
-        <v>0.1506484738617644</v>
+        <v>0.0401951239580427</v>
       </c>
       <c r="E25">
-        <v>0.01499224530669085</v>
+        <v>0.04075854060905293</v>
       </c>
       <c r="F25">
-        <v>8.269569362002102</v>
+        <v>1.206846491349225</v>
       </c>
       <c r="G25">
-        <v>0.000831069017032614</v>
+        <v>0.980217655339743</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0008195009018061583</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1392078156201464</v>
+        <v>0.6430648036778734</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5378384983711371</v>
       </c>
       <c r="L25">
-        <v>0.2048067341196003</v>
+        <v>0.0596333419773547</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4192137219651926</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.378213651322142</v>
+        <v>3.385772602441421</v>
       </c>
       <c r="C2">
-        <v>0.5742940435717401</v>
+        <v>0.6302732325843294</v>
       </c>
       <c r="D2">
-        <v>0.03522866393421253</v>
+        <v>0.04075324364389843</v>
       </c>
       <c r="E2">
-        <v>0.03738537503279371</v>
+        <v>0.03668084532526805</v>
       </c>
       <c r="F2">
-        <v>1.121892043285527</v>
+        <v>0.9888639933900407</v>
       </c>
       <c r="G2">
-        <v>0.9002394968517535</v>
+        <v>0.749609610761965</v>
       </c>
       <c r="H2">
-        <v>0.003202048930136092</v>
+        <v>0.002316531398972588</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6157497418812881</v>
+        <v>0.573535990539952</v>
       </c>
       <c r="K2">
-        <v>0.5314621174801104</v>
+        <v>0.4376867825780089</v>
       </c>
       <c r="L2">
-        <v>0.05566840826468633</v>
+        <v>0.2055971719072716</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.128241753225609</v>
       </c>
       <c r="N2">
-        <v>0.3565997824003091</v>
+        <v>0.05250475961095247</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3855050336342174</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.942196971035571</v>
+        <v>2.949115534735938</v>
       </c>
       <c r="C3">
-        <v>0.5018033520778147</v>
+        <v>0.545852775634188</v>
       </c>
       <c r="D3">
-        <v>0.03189349820311094</v>
+        <v>0.0369760164645605</v>
       </c>
       <c r="E3">
-        <v>0.03510888316151384</v>
+        <v>0.03478010298966083</v>
       </c>
       <c r="F3">
-        <v>1.068080225612803</v>
+        <v>0.9494472503650258</v>
       </c>
       <c r="G3">
-        <v>0.8498243765501314</v>
+        <v>0.7165617869017495</v>
       </c>
       <c r="H3">
-        <v>0.005814421139721915</v>
+        <v>0.004312822529544791</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5993677995312936</v>
+        <v>0.5586321595353638</v>
       </c>
       <c r="K3">
-        <v>0.5294122098163783</v>
+        <v>0.4423863172274736</v>
       </c>
       <c r="L3">
-        <v>0.0529585807501225</v>
+        <v>0.2109456347989216</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1273007797502181</v>
       </c>
       <c r="N3">
-        <v>0.3143348947597815</v>
+        <v>0.05023911223053146</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3400645676355367</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.674967090450423</v>
+        <v>2.681069987866522</v>
       </c>
       <c r="C4">
-        <v>0.4573441629894717</v>
+        <v>0.494211428244256</v>
       </c>
       <c r="D4">
-        <v>0.02985488272019765</v>
+        <v>0.03467081045348408</v>
       </c>
       <c r="E4">
-        <v>0.0337099917402135</v>
+        <v>0.03360771908192994</v>
       </c>
       <c r="F4">
-        <v>1.036719017932519</v>
+        <v>0.9264597113124537</v>
       </c>
       <c r="G4">
-        <v>0.8205453378904082</v>
+        <v>0.6977280337884224</v>
       </c>
       <c r="H4">
-        <v>0.007867353992464965</v>
+        <v>0.005895942020795908</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5902719434921124</v>
+        <v>0.5498840541808931</v>
       </c>
       <c r="K4">
-        <v>0.5291851718132179</v>
+        <v>0.4460023298361904</v>
       </c>
       <c r="L4">
-        <v>0.05127692595167144</v>
+        <v>0.2143734935981705</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1276748872859219</v>
       </c>
       <c r="N4">
-        <v>0.2884326187289616</v>
+        <v>0.04882809029985369</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3122416204475513</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.566152532369301</v>
+        <v>2.571827030036843</v>
       </c>
       <c r="C5">
-        <v>0.4392317726980366</v>
+        <v>0.4732083248135837</v>
       </c>
       <c r="D5">
-        <v>0.02902563783159806</v>
+        <v>0.03373436465257384</v>
       </c>
       <c r="E5">
-        <v>0.03313884530603328</v>
+        <v>0.03312803242957596</v>
       </c>
       <c r="F5">
-        <v>1.024336836035438</v>
+        <v>0.9173790721140875</v>
       </c>
       <c r="G5">
-        <v>0.809008630237841</v>
+        <v>0.690395799862813</v>
       </c>
       <c r="H5">
-        <v>0.008810733441820665</v>
+        <v>0.006626219617648421</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5867951527077935</v>
+        <v>0.5464146809012362</v>
       </c>
       <c r="K5">
-        <v>0.5293395876340341</v>
+        <v>0.4476508496430789</v>
       </c>
       <c r="L5">
-        <v>0.0505862425447603</v>
+        <v>0.2158061002769145</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1280596852685001</v>
       </c>
       <c r="N5">
-        <v>0.2778847416932422</v>
+        <v>0.04824739741532014</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3009191110508027</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.548087945449026</v>
+        <v>2.553685796059597</v>
       </c>
       <c r="C6">
-        <v>0.4362243199164197</v>
+        <v>0.4697230549546418</v>
       </c>
       <c r="D6">
-        <v>0.02888801099327054</v>
+        <v>0.03357903013743169</v>
       </c>
       <c r="E6">
-        <v>0.03304391852669042</v>
+        <v>0.03304824748031976</v>
       </c>
       <c r="F6">
-        <v>1.022304113904276</v>
+        <v>0.9158880482627723</v>
       </c>
       <c r="G6">
-        <v>0.8071160546688816</v>
+        <v>0.6891983071591028</v>
       </c>
       <c r="H6">
-        <v>0.008973658302325632</v>
+        <v>0.006752489845652132</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5862313702911592</v>
+        <v>0.5458442015130345</v>
       </c>
       <c r="K6">
-        <v>0.5293797894903136</v>
+        <v>0.447934904841965</v>
       </c>
       <c r="L6">
-        <v>0.05047120332032984</v>
+        <v>0.2160461286459707</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1281374153753791</v>
       </c>
       <c r="N6">
-        <v>0.2761335964120804</v>
+        <v>0.04815061078012395</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2990398456867212</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.673499288907067</v>
+        <v>2.679571060739136</v>
       </c>
       <c r="C7">
-        <v>0.4570998819903878</v>
+        <v>0.4931113660010169</v>
       </c>
       <c r="D7">
-        <v>0.02984369415050736</v>
+        <v>0.03480502912576</v>
       </c>
       <c r="E7">
-        <v>0.03370229449282292</v>
+        <v>0.0336151720368667</v>
       </c>
       <c r="F7">
-        <v>1.036550448503135</v>
+        <v>0.924104566386589</v>
       </c>
       <c r="G7">
-        <v>0.8203881858503479</v>
+        <v>0.7004946361806077</v>
       </c>
       <c r="H7">
-        <v>0.007879652175801555</v>
+        <v>0.005914316202318082</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5902241393621068</v>
+        <v>0.5431020222024188</v>
       </c>
       <c r="K7">
-        <v>0.5291862705202028</v>
+        <v>0.4449734414329107</v>
       </c>
       <c r="L7">
-        <v>0.05126763417703284</v>
+        <v>0.213911049879524</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1273712216447116</v>
       </c>
       <c r="N7">
-        <v>0.2882903419651655</v>
+        <v>0.04879628558624782</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3120412745823273</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.227750101119511</v>
+        <v>3.235068150083521</v>
       </c>
       <c r="C8">
-        <v>0.5492840475072853</v>
+        <v>0.5983629229013161</v>
       </c>
       <c r="D8">
-        <v>0.03407628899776682</v>
+        <v>0.03994490358934044</v>
       </c>
       <c r="E8">
-        <v>0.03660017225611956</v>
+        <v>0.0360740878101149</v>
       </c>
       <c r="F8">
-        <v>1.102973971781466</v>
+        <v>0.9676504461705235</v>
       </c>
       <c r="G8">
-        <v>0.8824919729382543</v>
+        <v>0.747495691602154</v>
       </c>
       <c r="H8">
-        <v>0.004005860460893018</v>
+        <v>0.002947121485481374</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6098938645172609</v>
+        <v>0.5462686846469893</v>
       </c>
       <c r="K8">
-        <v>0.5305334967442548</v>
+        <v>0.4357373105755933</v>
       </c>
       <c r="L8">
-        <v>0.05473718854871112</v>
+        <v>0.2059534177161915</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1266057363959199</v>
       </c>
       <c r="N8">
-        <v>0.3420138524418519</v>
+        <v>0.0516511888642055</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3696576722390006</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.320415876822665</v>
+        <v>4.326409149084611</v>
       </c>
       <c r="C9">
-        <v>0.730834515632381</v>
+        <v>0.8096188935074338</v>
       </c>
       <c r="D9">
-        <v>0.04248895769599059</v>
+        <v>0.04962806538596709</v>
       </c>
       <c r="E9">
-        <v>0.04231298132938122</v>
+        <v>0.04083102149866136</v>
       </c>
       <c r="F9">
-        <v>1.247734538434898</v>
+        <v>1.071653727519546</v>
       </c>
       <c r="G9">
-        <v>1.018858210989023</v>
+        <v>0.8418969279390041</v>
       </c>
       <c r="H9">
-        <v>0.0002612579403886706</v>
+        <v>0.000152594405371298</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.656692037972519</v>
+        <v>0.5799678773049521</v>
       </c>
       <c r="K9">
-        <v>0.5419557498354877</v>
+        <v>0.427645181392851</v>
       </c>
       <c r="L9">
-        <v>0.06144371126460779</v>
+        <v>0.1932711878868005</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1340965770130396</v>
       </c>
       <c r="N9">
-        <v>0.4479812328970638</v>
+        <v>0.05721090460808642</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4836262950099552</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.128952017444362</v>
+        <v>5.130654505157565</v>
       </c>
       <c r="C10">
-        <v>0.869059233120197</v>
+        <v>0.9637594090633286</v>
       </c>
       <c r="D10">
-        <v>0.04834724044744121</v>
+        <v>0.05715616666586243</v>
       </c>
       <c r="E10">
-        <v>0.04559592303243676</v>
+        <v>0.04354627074639605</v>
       </c>
       <c r="F10">
-        <v>1.340469153859829</v>
+        <v>1.123941340279799</v>
       </c>
       <c r="G10">
-        <v>1.107856760170037</v>
+        <v>0.9209901882864244</v>
       </c>
       <c r="H10">
-        <v>0.0004302313997999185</v>
+        <v>0.0004273322732979423</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6859164802244493</v>
+        <v>0.5619557853857771</v>
       </c>
       <c r="K10">
-        <v>0.5446424802941365</v>
+        <v>0.412209141792637</v>
       </c>
       <c r="L10">
-        <v>0.06547191315135015</v>
+        <v>0.1797645149002456</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1393535776070429</v>
       </c>
       <c r="N10">
-        <v>0.5148382078785829</v>
+        <v>0.06072424906551066</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5550899973361965</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.492313975234765</v>
+        <v>5.491775171720292</v>
       </c>
       <c r="C11">
-        <v>0.9665920742392302</v>
+        <v>1.045690318736774</v>
       </c>
       <c r="D11">
-        <v>0.04717089501021121</v>
+        <v>0.05664569574808809</v>
       </c>
       <c r="E11">
-        <v>0.04070858670855948</v>
+        <v>0.03907656366564893</v>
       </c>
       <c r="F11">
-        <v>1.181298931409344</v>
+        <v>0.9699262817393048</v>
       </c>
       <c r="G11">
-        <v>0.9662501012007567</v>
+        <v>0.8435064149612685</v>
       </c>
       <c r="H11">
-        <v>0.01915232211114315</v>
+        <v>0.01909307862662146</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6076299435575123</v>
+        <v>0.4355053831049389</v>
       </c>
       <c r="K11">
-        <v>0.4497569450123393</v>
+        <v>0.3321630257226218</v>
       </c>
       <c r="L11">
-        <v>0.06558996054978561</v>
+        <v>0.1485297149967408</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1122329478181356</v>
       </c>
       <c r="N11">
-        <v>0.4472294367971017</v>
+        <v>0.06430854036893763</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.480445628872431</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.627550453819538</v>
+        <v>5.62647780465096</v>
       </c>
       <c r="C12">
-        <v>1.021557117770698</v>
+        <v>1.08607061201576</v>
       </c>
       <c r="D12">
-        <v>0.04497126317965439</v>
+        <v>0.05402550134291317</v>
       </c>
       <c r="E12">
-        <v>0.03886028513967543</v>
+        <v>0.03743071989248148</v>
       </c>
       <c r="F12">
-        <v>1.034563680391784</v>
+        <v>0.8439533956984206</v>
       </c>
       <c r="G12">
-        <v>0.8348909168231984</v>
+        <v>0.7531063005925773</v>
       </c>
       <c r="H12">
-        <v>0.05779340307736192</v>
+        <v>0.05772559856870885</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5385278100825985</v>
+        <v>0.3641511289271762</v>
       </c>
       <c r="K12">
-        <v>0.3763870619622622</v>
+        <v>0.2779495628198561</v>
       </c>
       <c r="L12">
-        <v>0.07318351214461671</v>
+        <v>0.1292470508049686</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.09141536574395204</v>
       </c>
       <c r="N12">
-        <v>0.3807950761386252</v>
+        <v>0.07447868646047695</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.4078180459852376</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.593468306582167</v>
+        <v>5.593400907854118</v>
       </c>
       <c r="C13">
-        <v>1.046265524444522</v>
+        <v>1.098879551187451</v>
       </c>
       <c r="D13">
-        <v>0.04185753007564585</v>
+        <v>0.04937676371458366</v>
       </c>
       <c r="E13">
-        <v>0.03918202244606839</v>
+        <v>0.03794030297003292</v>
       </c>
       <c r="F13">
-        <v>0.8888420570317379</v>
+        <v>0.7341521347941438</v>
       </c>
       <c r="G13">
-        <v>0.7036064752890212</v>
+        <v>0.6423684523847157</v>
       </c>
       <c r="H13">
-        <v>0.1133533095533608</v>
+        <v>0.1133201957142944</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4723005615089733</v>
+        <v>0.3310742337858912</v>
       </c>
       <c r="K13">
-        <v>0.3148947670537972</v>
+        <v>0.2397411892859864</v>
       </c>
       <c r="L13">
-        <v>0.0867036501337104</v>
+        <v>0.1167927126928454</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.07479147534516173</v>
       </c>
       <c r="N13">
-        <v>0.3119831365791583</v>
+        <v>0.08985006469189827</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.3332292923494293</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.493064648802942</v>
+        <v>5.494294921658366</v>
       </c>
       <c r="C14">
-        <v>1.049845029037499</v>
+        <v>1.095315387121445</v>
       </c>
       <c r="D14">
-        <v>0.03929323680396024</v>
+        <v>0.04536206771854268</v>
       </c>
       <c r="E14">
-        <v>0.04075634159942876</v>
+        <v>0.03969871516560897</v>
       </c>
       <c r="F14">
-        <v>0.7892570135586183</v>
+        <v>0.6643753089610485</v>
       </c>
       <c r="G14">
-        <v>0.6135748465985955</v>
+        <v>0.5589900697472956</v>
       </c>
       <c r="H14">
-        <v>0.1625458399557829</v>
+        <v>0.1625397338509913</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4280862550198918</v>
+        <v>0.3213242098739855</v>
       </c>
       <c r="K14">
-        <v>0.2784779919350591</v>
+        <v>0.2199285324864384</v>
       </c>
       <c r="L14">
-        <v>0.09977247945621315</v>
+        <v>0.1107269581376276</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.06527708647878505</v>
       </c>
       <c r="N14">
-        <v>0.2639373681295893</v>
+        <v>0.1037078595364562</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2814149594433957</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.432566806173895</v>
+        <v>5.4343913395507</v>
       </c>
       <c r="C15">
-        <v>1.043935545164118</v>
+        <v>1.088246248725113</v>
       </c>
       <c r="D15">
-        <v>0.0384761844368775</v>
+        <v>0.04402999373141725</v>
       </c>
       <c r="E15">
-        <v>0.0412040163389058</v>
+        <v>0.04023894424195973</v>
       </c>
       <c r="F15">
-        <v>0.7644503223613555</v>
+        <v>0.6491779468313155</v>
       </c>
       <c r="G15">
-        <v>0.5908996330676786</v>
+        <v>0.5353003353669266</v>
       </c>
       <c r="H15">
-        <v>0.1749976013633727</v>
+        <v>0.1749985739740652</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4175807189980674</v>
+        <v>0.3242072794177489</v>
       </c>
       <c r="K15">
-        <v>0.2712060164902113</v>
+        <v>0.2171879123008367</v>
       </c>
       <c r="L15">
-        <v>0.1030702055947259</v>
+        <v>0.1100500782489888</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.06352488992239458</v>
       </c>
       <c r="N15">
-        <v>0.2512541370982291</v>
+        <v>0.1070847367874137</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.2678297359955621</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.089608835301931</v>
+        <v>5.093908999695486</v>
       </c>
       <c r="C16">
-        <v>0.9778304404864002</v>
+        <v>1.026571097890297</v>
       </c>
       <c r="D16">
-        <v>0.03664324262283714</v>
+        <v>0.0407943421061745</v>
       </c>
       <c r="E16">
-        <v>0.0396626203647612</v>
+        <v>0.03911483958197781</v>
       </c>
       <c r="F16">
-        <v>0.7553969965176677</v>
+        <v>0.6622807469078751</v>
       </c>
       <c r="G16">
-        <v>0.5800412293465342</v>
+        <v>0.5038675834127986</v>
       </c>
       <c r="H16">
-        <v>0.1621161439121863</v>
+        <v>0.1620940016626378</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4185467993785181</v>
+        <v>0.3720619056168033</v>
       </c>
       <c r="K16">
-        <v>0.282014913603188</v>
+        <v>0.2341844440412473</v>
       </c>
       <c r="L16">
-        <v>0.09803130491518175</v>
+        <v>0.1169994833078132</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.06753019218131762</v>
       </c>
       <c r="N16">
-        <v>0.2388283322743945</v>
+        <v>0.1015241804508022</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2551757706827829</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.880764911542713</v>
+        <v>4.886099724380301</v>
       </c>
       <c r="C17">
-        <v>0.9254795391275366</v>
+        <v>0.9797832666698696</v>
       </c>
       <c r="D17">
-        <v>0.03658643875036915</v>
+        <v>0.04052753855167168</v>
       </c>
       <c r="E17">
-        <v>0.03740220609595735</v>
+        <v>0.03696904899376996</v>
       </c>
       <c r="F17">
-        <v>0.8005975517199104</v>
+        <v>0.707988646012204</v>
       </c>
       <c r="G17">
-        <v>0.6188954257335553</v>
+        <v>0.5257309247994471</v>
       </c>
       <c r="H17">
-        <v>0.1243782984726209</v>
+        <v>0.1243049278639035</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4425445910693071</v>
+        <v>0.4123963990610235</v>
       </c>
       <c r="K17">
-        <v>0.3092066305222687</v>
+        <v>0.2578986311931288</v>
       </c>
       <c r="L17">
-        <v>0.08662815822889058</v>
+        <v>0.1261479715944507</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.07527599015330289</v>
       </c>
       <c r="N17">
-        <v>0.2539376786437515</v>
+        <v>0.08948211280502605</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.2719900816967282</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.762408207456645</v>
+        <v>4.768019926340287</v>
       </c>
       <c r="C18">
-        <v>0.8795471382317146</v>
+        <v>0.9427842031754494</v>
       </c>
       <c r="D18">
-        <v>0.03807381381362163</v>
+        <v>0.04250655795700098</v>
       </c>
       <c r="E18">
-        <v>0.0356909433239303</v>
+        <v>0.0351096054830724</v>
       </c>
       <c r="F18">
-        <v>0.9016032510814398</v>
+        <v>0.7938273924601944</v>
       </c>
       <c r="G18">
-        <v>0.7086972272039702</v>
+        <v>0.5925630461320424</v>
       </c>
       <c r="H18">
-        <v>0.0715919454901055</v>
+        <v>0.07149905993380656</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4908121313088145</v>
+        <v>0.4602412586937419</v>
       </c>
       <c r="K18">
-        <v>0.3572702759766422</v>
+        <v>0.2940490422025945</v>
       </c>
       <c r="L18">
-        <v>0.07238416923015478</v>
+        <v>0.1398250656620039</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.08835236981824579</v>
       </c>
       <c r="N18">
-        <v>0.2971263022092643</v>
+        <v>0.07411899819874179</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.3190977520577434</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.724984446257452</v>
+        <v>4.730317861719641</v>
       </c>
       <c r="C19">
-        <v>0.842918594909861</v>
+        <v>0.9175669090260783</v>
       </c>
       <c r="D19">
-        <v>0.04076558817153852</v>
+        <v>0.04616975303346749</v>
       </c>
       <c r="E19">
-        <v>0.03666069672710615</v>
+        <v>0.03568144842815568</v>
       </c>
       <c r="F19">
-        <v>1.047491265620877</v>
+        <v>0.912400867359338</v>
       </c>
       <c r="G19">
-        <v>0.8399195756625772</v>
+        <v>0.693603085933205</v>
       </c>
       <c r="H19">
-        <v>0.0263071488080584</v>
+        <v>0.02624425664647845</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5583238097097194</v>
+        <v>0.5163624989504427</v>
       </c>
       <c r="K19">
-        <v>0.4246757511749877</v>
+        <v>0.3420855035561097</v>
       </c>
       <c r="L19">
-        <v>0.06262348126841744</v>
+        <v>0.1577335717273485</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1065254028190665</v>
       </c>
       <c r="N19">
-        <v>0.3642568982104706</v>
+        <v>0.06242822525102198</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3921330062650128</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.916074992141773</v>
+        <v>4.919360290017892</v>
       </c>
       <c r="C20">
-        <v>0.8328153481903371</v>
+        <v>0.9263546050756872</v>
       </c>
       <c r="D20">
-        <v>0.04677898940100533</v>
+        <v>0.05458029291088451</v>
       </c>
       <c r="E20">
-        <v>0.04468232560508767</v>
+        <v>0.04273610081051338</v>
       </c>
       <c r="F20">
-        <v>1.314328764814221</v>
+        <v>1.116628568849308</v>
       </c>
       <c r="G20">
-        <v>1.08276499272749</v>
+        <v>0.8881899592996945</v>
       </c>
       <c r="H20">
-        <v>0.0001710473031542037</v>
+        <v>0.0001881550386939601</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6773456261008874</v>
+        <v>0.5887345877934536</v>
       </c>
       <c r="K20">
-        <v>0.5429674981614312</v>
+        <v>0.4190366533085097</v>
       </c>
       <c r="L20">
-        <v>0.06436342883439616</v>
+        <v>0.1843125264209284</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1388779514807901</v>
       </c>
       <c r="N20">
-        <v>0.4967532109524484</v>
+        <v>0.05984078023023132</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5359360046619486</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.540536527318864</v>
+        <v>5.537944499839227</v>
       </c>
       <c r="C21">
-        <v>0.9335470363071465</v>
+        <v>1.025281911426532</v>
       </c>
       <c r="D21">
-        <v>0.05203290446307562</v>
+        <v>0.06451468645057901</v>
       </c>
       <c r="E21">
-        <v>0.04877916035693719</v>
+        <v>0.04656844729897891</v>
       </c>
       <c r="F21">
-        <v>1.426819411599567</v>
+        <v>1.147640058164455</v>
       </c>
       <c r="G21">
-        <v>1.189060198388745</v>
+        <v>1.037027175188612</v>
       </c>
       <c r="H21">
-        <v>0.001105925369503824</v>
+        <v>0.0009258449377433919</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7189888065259993</v>
+        <v>0.477086007032554</v>
       </c>
       <c r="K21">
-        <v>0.5657514951922451</v>
+        <v>0.4031505490489309</v>
       </c>
       <c r="L21">
-        <v>0.06888705541336027</v>
+        <v>0.1725419844483582</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.142169757819552</v>
       </c>
       <c r="N21">
-        <v>0.566492844848355</v>
+        <v>0.06283654211957046</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.6098341855607146</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.950508840100156</v>
+        <v>5.943108665696229</v>
       </c>
       <c r="C22">
-        <v>1.001696876532208</v>
+        <v>1.08994004621519</v>
       </c>
       <c r="D22">
-        <v>0.05528207245099281</v>
+        <v>0.071177276837048</v>
       </c>
       <c r="E22">
-        <v>0.05098487333618973</v>
+        <v>0.04869832857158229</v>
       </c>
       <c r="F22">
-        <v>1.490544436893728</v>
+        <v>1.156589813222936</v>
       </c>
       <c r="G22">
-        <v>1.249960298709425</v>
+        <v>1.135713169766461</v>
       </c>
       <c r="H22">
-        <v>0.002433069706141877</v>
+        <v>0.001936077708307282</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7419520097922145</v>
+        <v>0.4036431161975429</v>
       </c>
       <c r="K22">
-        <v>0.5759918634380696</v>
+        <v>0.3884102931153066</v>
       </c>
       <c r="L22">
-        <v>0.07140012082281455</v>
+        <v>0.1634932636622715</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.142900501984478</v>
       </c>
       <c r="N22">
-        <v>0.6063692302128203</v>
+        <v>0.06457194790402432</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6517908262683392</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.731474873491209</v>
+        <v>5.726886509531823</v>
       </c>
       <c r="C23">
-        <v>0.9652835073923711</v>
+        <v>1.057722360152468</v>
       </c>
       <c r="D23">
-        <v>0.05354332536192885</v>
+        <v>0.06714222845194229</v>
       </c>
       <c r="E23">
-        <v>0.04980407078817972</v>
+        <v>0.04750587496620984</v>
       </c>
       <c r="F23">
-        <v>1.456289397033586</v>
+        <v>1.157400051951157</v>
       </c>
       <c r="G23">
-        <v>1.217203439218167</v>
+        <v>1.074056143261018</v>
       </c>
       <c r="H23">
-        <v>0.001662064369820415</v>
+        <v>0.001359592498365814</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7295643724483796</v>
+        <v>0.4553299791020606</v>
       </c>
       <c r="K23">
-        <v>0.5703887479418199</v>
+        <v>0.3986674276596744</v>
       </c>
       <c r="L23">
-        <v>0.07005618666923752</v>
+        <v>0.1691069771022953</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1434811146243433</v>
       </c>
       <c r="N23">
-        <v>0.5850609529945956</v>
+        <v>0.06369210816611504</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6295122592826914</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.906452183067756</v>
+        <v>4.909721406966639</v>
       </c>
       <c r="C24">
-        <v>0.8281861302947107</v>
+        <v>0.922787237453889</v>
       </c>
       <c r="D24">
-        <v>0.04705074057669378</v>
+        <v>0.05494873760256525</v>
       </c>
       <c r="E24">
-        <v>0.04540253437216801</v>
+        <v>0.04339250083014345</v>
       </c>
       <c r="F24">
-        <v>1.331680213904164</v>
+        <v>1.130894169545101</v>
       </c>
       <c r="G24">
-        <v>1.098456109662038</v>
+        <v>0.8997803152181234</v>
       </c>
       <c r="H24">
-        <v>6.253031109326734E-05</v>
+        <v>8.076497872377963E-05</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6854270768593267</v>
+        <v>0.5961966966665244</v>
       </c>
       <c r="K24">
-        <v>0.552075537000313</v>
+        <v>0.4256731792414215</v>
       </c>
       <c r="L24">
-        <v>0.06501599627570442</v>
+        <v>0.1868237459174651</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1413312772286126</v>
       </c>
       <c r="N24">
-        <v>0.5048746285184649</v>
+        <v>0.06014013130572504</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5448015085695914</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.023909773170885</v>
+        <v>4.030812722761198</v>
       </c>
       <c r="C25">
-        <v>0.681579929562929</v>
+        <v>0.7534160841715618</v>
       </c>
       <c r="D25">
-        <v>0.0401951239580427</v>
+        <v>0.04677095345377325</v>
       </c>
       <c r="E25">
-        <v>0.04075854060905293</v>
+        <v>0.03952007022898929</v>
       </c>
       <c r="F25">
-        <v>1.206846491349225</v>
+        <v>1.045402141266521</v>
       </c>
       <c r="G25">
-        <v>0.980217655339743</v>
+        <v>0.8106716820595636</v>
       </c>
       <c r="H25">
-        <v>0.0008195009018061583</v>
+        <v>0.0005456212611782973</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6430648036778734</v>
+        <v>0.5797742329422135</v>
       </c>
       <c r="K25">
-        <v>0.5378384983711371</v>
+        <v>0.4305404693662815</v>
       </c>
       <c r="L25">
-        <v>0.0596333419773547</v>
+        <v>0.1971337183335464</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1316949222580313</v>
       </c>
       <c r="N25">
-        <v>0.4192137219651926</v>
+        <v>0.05574659963615458</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.452749271509191</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
